--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FE6ED-2F7F-DB4A-A4A1-F9C44C6BB372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27696DBC-E9F3-DB47-95D6-4F6CAE35EA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>Reached lesson 5.3</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>Reached lesson 5.4</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>Reached lesson 5.5</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>Completed Lesson 5.8, working on 5.9</t>
   </si>
 </sst>
 </file>
@@ -541,7 +559,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -597,19 +615,37 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43846</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43847</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43848</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27696DBC-E9F3-DB47-95D6-4F6CAE35EA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC12E4D-C452-5347-9912-1F93704FA4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -80,7 +80,19 @@
     <t>D14</t>
   </si>
   <si>
-    <t>Completed Lesson 5.8, working on 5.9</t>
+    <t>Completed till Lesson 5.8, working on 5.9</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>Day off</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>Reached lesson 5.11</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -648,14 +660,26 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43849</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43850</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC12E4D-C452-5347-9912-1F93704FA4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B930843B-1BB1-1A4D-9B8F-A6B42B5692F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Reached lesson 5.11</t>
+  </si>
+  <si>
+    <t>Completed till lesson 5.13</t>
+  </si>
+  <si>
+    <t>D17</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -682,9 +688,15 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43851</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B930843B-1BB1-1A4D-9B8F-A6B42B5692F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B170BE6-3D4A-F842-AE54-45261202A7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed lessons 5.14 and 5.15 </t>
   </si>
 </sst>
 </file>
@@ -577,7 +583,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -699,9 +705,15 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8">
+        <v>43852</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B170BE6-3D4A-F842-AE54-45261202A7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E57B1F-0D8F-8C46-B778-1C9BBD4AB364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t xml:space="preserve">Completed lessons 5.14 and 5.15 </t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>Completed lesson 5.17</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>Completed lesson 5. Started with lesson 6, reached till 6.10</t>
   </si>
 </sst>
 </file>
@@ -582,8 +597,8 @@
   </sheetPr>
   <dimension ref="B1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B44" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -716,19 +731,37 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43853</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8">
+        <v>43854</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43855</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E57B1F-0D8F-8C46-B778-1C9BBD4AB364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C60D6-2C3F-EC43-A435-17EF6BC8F1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,24 @@
   </si>
   <si>
     <t>Completed lesson 5. Started with lesson 6, reached till 6.10</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>Started working on Intel Image classification problem. Also watched some videos about CNN</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>Out sick</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>Completed lessons 6.11 to 6.24</t>
   </si>
 </sst>
 </file>
@@ -597,7 +615,7 @@
   </sheetPr>
   <dimension ref="B1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B44" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -764,19 +782,37 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8">
+        <v>43856</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8">
+        <v>43857</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8">
+        <v>43858</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C60D6-2C3F-EC43-A435-17EF6BC8F1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70475CC-FF42-C746-9B94-71D46318BC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>Completed lessons 6.11 to 6.24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>Completed lessons 6.25 to 6.28</t>
+  </si>
+  <si>
+    <t>Completed lessons 6.29 to 6.31</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>Completed lessons 6.32 to 6.34</t>
+  </si>
+  <si>
+    <t>Completed lesson 6(6.35 to 6.44). Started lesson 7 - completed 7.3</t>
+  </si>
+  <si>
+    <t>D28</t>
   </si>
 </sst>
 </file>
@@ -615,8 +639,8 @@
   </sheetPr>
   <dimension ref="B1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -815,24 +839,48 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43859</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43860</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8">
+        <v>43861</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8">
+        <v>43862</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70475CC-FF42-C746-9B94-71D46318BC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB94A96-AD38-F241-9DB8-3E3EBD4FE1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>Completed lesson 7. Worked on Intel Image classification.</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -883,9 +889,15 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8">
+        <v>43863</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB94A96-AD38-F241-9DB8-3E3EBD4FE1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33923A60-A8D1-6D4D-BF77-700C60CE81DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Completed lesson 7. Worked on Intel Image classification.</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>Started with lesson 8 - reached 8.3</t>
+  </si>
+  <si>
+    <t>D31</t>
   </si>
 </sst>
 </file>
@@ -272,7 +281,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -299,6 +308,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -645,8 +657,8 @@
   </sheetPr>
   <dimension ref="B1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -661,11 +673,11 @@
   <sheetData>
     <row r="1" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -900,14 +912,26 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43864</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43865</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33923A60-A8D1-6D4D-BF77-700C60CE81DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13673E5C-C3A4-7B4F-A7CB-F9FF908A7327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>Watched some videos about RNN</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>Completed lessons 8.4 and 8.5</t>
+  </si>
+  <si>
+    <t>Completed lessons 8.6 to 8.8</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>Completed lesson 8. Participated in study jam from 10.30 AM to midnight. Submitted solutions for binary classification and style transfer problems. Took part in style transfer quizzes. Also, participated in fun activities.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +682,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -934,24 +958,48 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43866</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43867</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43868</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43869</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13673E5C-C3A4-7B4F-A7CB-F9FF908A7327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CEAC1F-C8E6-BC4A-977B-B57292C7CDF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Completed lesson 8. Participated in study jam from 10.30 AM to midnight. Submitted solutions for binary classification and style transfer problems. Took part in style transfer quizzes. Also, participated in fun activities.</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>Completed lessons 9.1 to 9.7. Took part in study jam activities.</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1002,9 +1008,15 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="10">
+        <v>43870</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CEAC1F-C8E6-BC4A-977B-B57292C7CDF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34ED9BB-6F0D-B045-A7C1-B122AA915A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>Completed lessons 9.1 to 9.7. Took part in study jam activities.</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>Completed lessons 9.7 to 9.10</t>
+  </si>
+  <si>
+    <t>Completed lesson 9</t>
   </si>
 </sst>
 </file>
@@ -688,7 +700,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1019,14 +1031,26 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="10">
+        <v>43871</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="10">
+        <v>43872</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="33" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34ED9BB-6F0D-B045-A7C1-B122AA915A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466C2CA6-8875-E448-8652-98F88F73DFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,33 @@
   </si>
   <si>
     <t>Completed lesson 9</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>Completed lesson 10 and 11</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>Started with Udemy Python course</t>
+  </si>
+  <si>
+    <t>Working on Udemy Python course</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>Continued on Udemy Python course. Took part in Study Jam of sg_aiudacity4india</t>
   </si>
 </sst>
 </file>
@@ -699,8 +726,8 @@
   </sheetPr>
   <dimension ref="B1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1053,29 +1080,59 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="10">
+        <v>43873</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="10">
+        <v>43874</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="10">
+        <v>43875</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="36" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="10">
+        <v>43876</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="10">
+        <v>43877</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="38" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466C2CA6-8875-E448-8652-98F88F73DFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD34489A-9B7B-9E4F-9B89-EFE9484E3A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>Continued on Udemy Python course. Took part in Study Jam of sg_aiudacity4india</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>Python course. Read some neural net articles.</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>Started with revision of lesson 3</t>
   </si>
 </sst>
 </file>
@@ -726,8 +741,8 @@
   </sheetPr>
   <dimension ref="B1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1135,19 +1150,37 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="10">
+        <v>43878</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="39" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="10">
+        <v>43879</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="10">
+        <v>43880</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD34489A-9B7B-9E4F-9B89-EFE9484E3A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3DDB4-A6C7-1441-AA9A-B9115E209359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>Started with revision of lesson 3</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>Revision of lesson 3</t>
+  </si>
+  <si>
+    <t>Python course</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>Revision of lesson 3. Took part in sg_aiudacity4india study jam</t>
+  </si>
+  <si>
+    <t>Took part in sg_aiudacity4india study jam. Completed revision of lesson 3</t>
   </si>
 </sst>
 </file>
@@ -742,7 +766,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1183,24 +1207,48 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="10">
+        <v>43881</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="10">
+        <v>43882</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43883</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43884</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3DDB4-A6C7-1441-AA9A-B9115E209359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A717ECF-283E-0A4E-9D9D-EFB97D65BEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -285,6 +285,33 @@
   </si>
   <si>
     <t>Took part in sg_aiudacity4india study jam. Completed revision of lesson 3</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>Worked on python course</t>
+  </si>
+  <si>
+    <t>Watched Udacity Ted talks. Started with lesson 5 revision.</t>
+  </si>
+  <si>
+    <t>Watched Udacity Ted talks. Continued with lesson 5 revision.</t>
+  </si>
+  <si>
+    <t>Watched Udacity Ted talks</t>
   </si>
 </sst>
 </file>
@@ -294,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="4"/>
@@ -341,6 +368,12 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -766,7 +799,7 @@
   <dimension ref="B1:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1251,29 +1284,59 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="10">
+        <v>43885</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="10">
+        <v>43886</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="10">
+        <v>43887</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="48" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="10">
+        <v>43888</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="10">
+        <v>43889</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="6"/>
@@ -1289,6 +1352,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/60_days_udacity.xlsx
+++ b/60_days_udacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thankaselv.kumaresan/Documents/MyFolder/Notes/neural-networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A717ECF-283E-0A4E-9D9D-EFB97D65BEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC76AD09-F8AF-4048-826A-C68A47B143B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -312,6 +312,36 @@
   </si>
   <si>
     <t>Watched Udacity Ted talks</t>
+  </si>
+  <si>
+    <t>D56</t>
+  </si>
+  <si>
+    <t>Took part in #sg_aiudacity4india study jam activities and quizzes. Also took part in #math_in_ai study session for RNN. Watched Andrew Ng's video with Lex Fridman</t>
+  </si>
+  <si>
+    <t>D57</t>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>Took part in day 2 of #sg_aiudacity4india study jam quizzes and activities. Completed review of chapter 5.  Checked status of all quizzes of the course.</t>
+  </si>
+  <si>
+    <t>Completed with review of lesson 6</t>
+  </si>
+  <si>
+    <t>Completed with review of lesson 7</t>
+  </si>
+  <si>
+    <t>Completed reviewing lesson 8</t>
   </si>
 </sst>
 </file>
@@ -574,7 +604,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Schedule" displayName="Schedule" ref="B3:D51" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Schedule" displayName="Schedule" ref="B3:D54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="1"/>
@@ -796,10 +826,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E51"/>
+  <dimension ref="B1:E54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1339,14 +1369,59 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="10">
+        <v>43859</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="51" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="10">
+        <v>43891</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="10">
+        <v>43892</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="10">
+        <v>43893</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="10">
+        <v>43894</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
